--- a/backend/schedules/sample.xlsx
+++ b/backend/schedules/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzobule\Documents\flysolomons\website\backend\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74DD6233-80C7-4491-92DD-14BBC7D18669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C045E9C0-82EC-4731-9826-22414C384E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04BAA549-83C3-429D-9539-24C4E4ADB56B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{3FC9212E-82AD-4A35-89C7-83AE87714235}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="228">
   <si>
     <t>Start Date</t>
   </si>
@@ -52,37 +52,658 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>AA123</t>
-  </si>
-  <si>
-    <t>JFK</t>
-  </si>
-  <si>
-    <t>LAX</t>
+    <t>IE001</t>
+  </si>
+  <si>
+    <t>HIR</t>
+  </si>
+  <si>
+    <t>BNE</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>IE002</t>
+  </si>
+  <si>
+    <t>GZO</t>
   </si>
   <si>
     <t>Domestic</t>
   </si>
   <si>
-    <t>BA456</t>
-  </si>
-  <si>
-    <t>LHR</t>
-  </si>
-  <si>
-    <t>International</t>
+    <t>IE003</t>
+  </si>
+  <si>
+    <t>MUA</t>
+  </si>
+  <si>
+    <t>IE004</t>
+  </si>
+  <si>
+    <t>AKL</t>
+  </si>
+  <si>
+    <t>IE005</t>
+  </si>
+  <si>
+    <t>RIN</t>
+  </si>
+  <si>
+    <t>IE006</t>
+  </si>
+  <si>
+    <t>KGE</t>
+  </si>
+  <si>
+    <t>IE007</t>
+  </si>
+  <si>
+    <t>EGM</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>DL789</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>MIA</t>
+    <t>IE008</t>
+  </si>
+  <si>
+    <t>VLI</t>
+  </si>
+  <si>
+    <t>IE009</t>
+  </si>
+  <si>
+    <t>IE010</t>
+  </si>
+  <si>
+    <t>IE011</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>IE012</t>
+  </si>
+  <si>
+    <t>IE013</t>
+  </si>
+  <si>
+    <t>IE014</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>IE015</t>
+  </si>
+  <si>
+    <t>IE016</t>
+  </si>
+  <si>
+    <t>IE017</t>
+  </si>
+  <si>
+    <t>IE018</t>
+  </si>
+  <si>
+    <t>IE019</t>
+  </si>
+  <si>
+    <t>IE020</t>
+  </si>
+  <si>
+    <t>IE021</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>IE022</t>
+  </si>
+  <si>
+    <t>IE023</t>
+  </si>
+  <si>
+    <t>IE024</t>
+  </si>
+  <si>
+    <t>IE025</t>
+  </si>
+  <si>
+    <t>IE026</t>
+  </si>
+  <si>
+    <t>IE027</t>
+  </si>
+  <si>
+    <t>IE028</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>IE029</t>
+  </si>
+  <si>
+    <t>IE030</t>
+  </si>
+  <si>
+    <t>IE031</t>
+  </si>
+  <si>
+    <t>IE032</t>
+  </si>
+  <si>
+    <t>IE033</t>
+  </si>
+  <si>
+    <t>IE034</t>
+  </si>
+  <si>
+    <t>IE035</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>IE036</t>
+  </si>
+  <si>
+    <t>IE037</t>
+  </si>
+  <si>
+    <t>IE038</t>
+  </si>
+  <si>
+    <t>IE039</t>
+  </si>
+  <si>
+    <t>IE040</t>
+  </si>
+  <si>
+    <t>IE041</t>
+  </si>
+  <si>
+    <t>IE042</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>IE043</t>
+  </si>
+  <si>
+    <t>IE044</t>
+  </si>
+  <si>
+    <t>IE045</t>
+  </si>
+  <si>
+    <t>IE046</t>
+  </si>
+  <si>
+    <t>IE047</t>
+  </si>
+  <si>
+    <t>IE048</t>
+  </si>
+  <si>
+    <t>IE049</t>
+  </si>
+  <si>
+    <t>IE050</t>
+  </si>
+  <si>
+    <t>IE051</t>
+  </si>
+  <si>
+    <t>IE052</t>
+  </si>
+  <si>
+    <t>IE053</t>
+  </si>
+  <si>
+    <t>IE054</t>
+  </si>
+  <si>
+    <t>IE055</t>
+  </si>
+  <si>
+    <t>IE056</t>
+  </si>
+  <si>
+    <t>IE057</t>
+  </si>
+  <si>
+    <t>IE058</t>
+  </si>
+  <si>
+    <t>IE059</t>
+  </si>
+  <si>
+    <t>IE060</t>
+  </si>
+  <si>
+    <t>IE061</t>
+  </si>
+  <si>
+    <t>IE062</t>
+  </si>
+  <si>
+    <t>IE063</t>
+  </si>
+  <si>
+    <t>IE064</t>
+  </si>
+  <si>
+    <t>IE065</t>
+  </si>
+  <si>
+    <t>IE066</t>
+  </si>
+  <si>
+    <t>IE067</t>
+  </si>
+  <si>
+    <t>IE068</t>
+  </si>
+  <si>
+    <t>IE069</t>
+  </si>
+  <si>
+    <t>IE070</t>
+  </si>
+  <si>
+    <t>IE071</t>
+  </si>
+  <si>
+    <t>IE072</t>
+  </si>
+  <si>
+    <t>IE073</t>
+  </si>
+  <si>
+    <t>IE074</t>
+  </si>
+  <si>
+    <t>IE075</t>
+  </si>
+  <si>
+    <t>IE076</t>
+  </si>
+  <si>
+    <t>IE077</t>
+  </si>
+  <si>
+    <t>IE078</t>
+  </si>
+  <si>
+    <t>IE079</t>
+  </si>
+  <si>
+    <t>IE080</t>
+  </si>
+  <si>
+    <t>IE081</t>
+  </si>
+  <si>
+    <t>IE082</t>
+  </si>
+  <si>
+    <t>IE083</t>
+  </si>
+  <si>
+    <t>IE084</t>
+  </si>
+  <si>
+    <t>IE085</t>
+  </si>
+  <si>
+    <t>IE086</t>
+  </si>
+  <si>
+    <t>IE087</t>
+  </si>
+  <si>
+    <t>IE088</t>
+  </si>
+  <si>
+    <t>IE089</t>
+  </si>
+  <si>
+    <t>IE090</t>
+  </si>
+  <si>
+    <t>IE091</t>
+  </si>
+  <si>
+    <t>IE092</t>
+  </si>
+  <si>
+    <t>IE093</t>
+  </si>
+  <si>
+    <t>IE094</t>
+  </si>
+  <si>
+    <t>IE095</t>
+  </si>
+  <si>
+    <t>IE096</t>
+  </si>
+  <si>
+    <t>IE097</t>
+  </si>
+  <si>
+    <t>IE098</t>
+  </si>
+  <si>
+    <t>IE099</t>
+  </si>
+  <si>
+    <t>IE100</t>
+  </si>
+  <si>
+    <t>IE101</t>
+  </si>
+  <si>
+    <t>IE102</t>
+  </si>
+  <si>
+    <t>IE103</t>
+  </si>
+  <si>
+    <t>IE104</t>
+  </si>
+  <si>
+    <t>IE105</t>
+  </si>
+  <si>
+    <t>IE106</t>
+  </si>
+  <si>
+    <t>IE107</t>
+  </si>
+  <si>
+    <t>IE108</t>
+  </si>
+  <si>
+    <t>IE109</t>
+  </si>
+  <si>
+    <t>IE110</t>
+  </si>
+  <si>
+    <t>IE111</t>
+  </si>
+  <si>
+    <t>IE112</t>
+  </si>
+  <si>
+    <t>IE113</t>
+  </si>
+  <si>
+    <t>IE114</t>
+  </si>
+  <si>
+    <t>IE115</t>
+  </si>
+  <si>
+    <t>IE116</t>
+  </si>
+  <si>
+    <t>IE117</t>
+  </si>
+  <si>
+    <t>IE118</t>
+  </si>
+  <si>
+    <t>IE119</t>
+  </si>
+  <si>
+    <t>IE120</t>
+  </si>
+  <si>
+    <t>IE121</t>
+  </si>
+  <si>
+    <t>IE122</t>
+  </si>
+  <si>
+    <t>IE123</t>
+  </si>
+  <si>
+    <t>IE124</t>
+  </si>
+  <si>
+    <t>IE125</t>
+  </si>
+  <si>
+    <t>IE126</t>
+  </si>
+  <si>
+    <t>IE127</t>
+  </si>
+  <si>
+    <t>IE128</t>
+  </si>
+  <si>
+    <t>IE129</t>
+  </si>
+  <si>
+    <t>IE130</t>
+  </si>
+  <si>
+    <t>IE131</t>
+  </si>
+  <si>
+    <t>IE132</t>
+  </si>
+  <si>
+    <t>IE133</t>
+  </si>
+  <si>
+    <t>IE134</t>
+  </si>
+  <si>
+    <t>IE135</t>
+  </si>
+  <si>
+    <t>IE136</t>
+  </si>
+  <si>
+    <t>IE137</t>
+  </si>
+  <si>
+    <t>IE138</t>
+  </si>
+  <si>
+    <t>IE139</t>
+  </si>
+  <si>
+    <t>IE140</t>
+  </si>
+  <si>
+    <t>IE141</t>
+  </si>
+  <si>
+    <t>IE142</t>
+  </si>
+  <si>
+    <t>IE143</t>
+  </si>
+  <si>
+    <t>IE144</t>
+  </si>
+  <si>
+    <t>IE145</t>
+  </si>
+  <si>
+    <t>IE146</t>
+  </si>
+  <si>
+    <t>IE147</t>
+  </si>
+  <si>
+    <t>IE148</t>
+  </si>
+  <si>
+    <t>IE149</t>
+  </si>
+  <si>
+    <t>IE150</t>
+  </si>
+  <si>
+    <t>IE151</t>
+  </si>
+  <si>
+    <t>IE152</t>
+  </si>
+  <si>
+    <t>IE153</t>
+  </si>
+  <si>
+    <t>IE154</t>
+  </si>
+  <si>
+    <t>IE155</t>
+  </si>
+  <si>
+    <t>IE156</t>
+  </si>
+  <si>
+    <t>IE157</t>
+  </si>
+  <si>
+    <t>IE158</t>
+  </si>
+  <si>
+    <t>IE159</t>
+  </si>
+  <si>
+    <t>IE160</t>
+  </si>
+  <si>
+    <t>IE161</t>
+  </si>
+  <si>
+    <t>IE162</t>
+  </si>
+  <si>
+    <t>IE163</t>
+  </si>
+  <si>
+    <t>IE164</t>
+  </si>
+  <si>
+    <t>IE165</t>
+  </si>
+  <si>
+    <t>IE166</t>
+  </si>
+  <si>
+    <t>IE167</t>
+  </si>
+  <si>
+    <t>IE168</t>
+  </si>
+  <si>
+    <t>IE169</t>
+  </si>
+  <si>
+    <t>IE170</t>
+  </si>
+  <si>
+    <t>IE171</t>
+  </si>
+  <si>
+    <t>IE172</t>
+  </si>
+  <si>
+    <t>IE173</t>
+  </si>
+  <si>
+    <t>IE174</t>
+  </si>
+  <si>
+    <t>IE175</t>
+  </si>
+  <si>
+    <t>IE176</t>
+  </si>
+  <si>
+    <t>IE177</t>
+  </si>
+  <si>
+    <t>IE178</t>
+  </si>
+  <si>
+    <t>IE179</t>
+  </si>
+  <si>
+    <t>IE180</t>
+  </si>
+  <si>
+    <t>IE181</t>
+  </si>
+  <si>
+    <t>IE182</t>
+  </si>
+  <si>
+    <t>IE183</t>
+  </si>
+  <si>
+    <t>IE184</t>
+  </si>
+  <si>
+    <t>IE185</t>
+  </si>
+  <si>
+    <t>IE186</t>
+  </si>
+  <si>
+    <t>IE187</t>
+  </si>
+  <si>
+    <t>IE188</t>
+  </si>
+  <si>
+    <t>IE189</t>
+  </si>
+  <si>
+    <t>IE190</t>
+  </si>
+  <si>
+    <t>IE191</t>
+  </si>
+  <si>
+    <t>IE192</t>
+  </si>
+  <si>
+    <t>IE193</t>
+  </si>
+  <si>
+    <t>IE194</t>
+  </si>
+  <si>
+    <t>IE195</t>
+  </si>
+  <si>
+    <t>IE196</t>
+  </si>
+  <si>
+    <t>IE197</t>
+  </si>
+  <si>
+    <t>IE198</t>
+  </si>
+  <si>
+    <t>IE199</t>
+  </si>
+  <si>
+    <t>IE200</t>
   </si>
 </sst>
 </file>
@@ -944,8 +1565,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910382FE-3C11-4C6A-8DC6-19A856931772}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE25B718-93D6-4A9A-8475-E9C23A1238BA}">
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,10 +1603,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45775</v>
+        <v>45658</v>
       </c>
       <c r="B2" s="1">
-        <v>45776</v>
+        <v>45747</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1000,10 +1621,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -1011,10 +1632,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45775</v>
+        <v>45658</v>
       </c>
       <c r="B3" s="1">
-        <v>45776</v>
+        <v>45747</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1023,16 +1644,16 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="H3" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -1040,30 +1661,5743 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B4" s="1">
-        <v>45779</v>
+        <v>45747</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.89930555555555558</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.60763888888888884</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="H30" s="2">
         <v>0.375</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H36" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.83680555555555558</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H45" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.85069444444444442</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.1701388888888889</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.89930555555555558</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.93055555555555558</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="H72" s="2">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.83680555555555558</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C82" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.96180555555555558</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="H86" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" t="s">
+        <v>114</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C90" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C91" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C93" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" t="s">
+        <v>119</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.27430555555555558</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C97" t="s">
+        <v>69</v>
+      </c>
+      <c r="D97" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C99" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C100" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C101" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101" t="s">
+        <v>127</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>129</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.60763888888888884</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>131</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0.83680555555555558</v>
+      </c>
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="I108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="I110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" t="s">
+        <v>137</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="I111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="I112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" t="s">
+        <v>139</v>
+      </c>
+      <c r="E113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="I113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" t="s">
+        <v>140</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" t="s">
+        <v>141</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C116" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0.2326388888888889</v>
+      </c>
+      <c r="H116" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C117" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" t="s">
+        <v>143</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="I118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="I119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" t="s">
+        <v>146</v>
+      </c>
+      <c r="E120" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="I120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0.85069444444444442</v>
+      </c>
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>148</v>
+      </c>
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="I122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C123" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="I123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C125" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0.60763888888888884</v>
+      </c>
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C126" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="I126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C127" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" t="s">
+        <v>153</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="I127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C128" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" t="s">
+        <v>154</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="I128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C129" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" t="s">
+        <v>155</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="I129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C130" t="s">
+        <v>53</v>
+      </c>
+      <c r="D130" t="s">
+        <v>156</v>
+      </c>
+      <c r="E130" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="I130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C131" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="I131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="I132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C133" t="s">
+        <v>53</v>
+      </c>
+      <c r="D133" t="s">
+        <v>159</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="I133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C134" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" t="s">
+        <v>160</v>
+      </c>
+      <c r="E134" t="s">
+        <v>26</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="I134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C135" t="s">
+        <v>53</v>
+      </c>
+      <c r="D135" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="I135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C136" t="s">
+        <v>53</v>
+      </c>
+      <c r="D136" t="s">
+        <v>162</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C137" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C138" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" t="s">
+        <v>164</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C139" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="I139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C140" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" t="s">
+        <v>166</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0.77430555555555558</v>
+      </c>
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C141" t="s">
+        <v>61</v>
+      </c>
+      <c r="D141" t="s">
+        <v>167</v>
+      </c>
+      <c r="E141" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="I141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C142" t="s">
+        <v>61</v>
+      </c>
+      <c r="D142" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="H142" s="2">
+        <v>0.96875</v>
+      </c>
+      <c r="I142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C143" t="s">
+        <v>61</v>
+      </c>
+      <c r="D143" t="s">
+        <v>169</v>
+      </c>
+      <c r="E143" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="H143" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="I143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C144" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" t="s">
+        <v>170</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="I144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C145" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" t="s">
+        <v>171</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="I145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C146" t="s">
+        <v>69</v>
+      </c>
+      <c r="D146" t="s">
+        <v>172</v>
+      </c>
+      <c r="E146" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C147" t="s">
+        <v>69</v>
+      </c>
+      <c r="D147" t="s">
+        <v>173</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="I147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C148" t="s">
+        <v>69</v>
+      </c>
+      <c r="D148" t="s">
+        <v>174</v>
+      </c>
+      <c r="E148" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C149" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149" t="s">
+        <v>175</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="I149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C150" t="s">
+        <v>69</v>
+      </c>
+      <c r="D150" t="s">
+        <v>176</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="I150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C151" t="s">
+        <v>69</v>
+      </c>
+      <c r="D151" t="s">
+        <v>177</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>33</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="I151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B152" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>178</v>
+      </c>
+      <c r="E152" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="I152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B153" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>179</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="I153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B154" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>180</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B155" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>181</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="I155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B156" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>182</v>
+      </c>
+      <c r="E156" t="s">
+        <v>24</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="I156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B157" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>183</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="I157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B158" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>184</v>
+      </c>
+      <c r="E158" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="I158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B159" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C159" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" t="s">
+        <v>185</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B160" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C160" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" t="s">
+        <v>186</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B161" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" t="s">
+        <v>187</v>
+      </c>
+      <c r="E161" t="s">
+        <v>22</v>
+      </c>
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="I161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B162" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C162" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" t="s">
+        <v>188</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" t="s">
+        <v>24</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B163" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" t="s">
+        <v>189</v>
+      </c>
+      <c r="E163" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="I163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B164" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" t="s">
+        <v>190</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0.96875</v>
+      </c>
+      <c r="I164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B165" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" t="s">
+        <v>191</v>
+      </c>
+      <c r="E165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="H165" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B166" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C166" t="s">
+        <v>37</v>
+      </c>
+      <c r="D166" t="s">
+        <v>192</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s">
+        <v>29</v>
+      </c>
+      <c r="G166" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="I166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B167" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C167" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167" t="s">
+        <v>193</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="I167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B168" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C168" t="s">
+        <v>37</v>
+      </c>
+      <c r="D168" t="s">
+        <v>194</v>
+      </c>
+      <c r="E168" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="I168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B169" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C169" t="s">
+        <v>37</v>
+      </c>
+      <c r="D169" t="s">
+        <v>195</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s">
+        <v>24</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B170" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C170" t="s">
+        <v>37</v>
+      </c>
+      <c r="D170" t="s">
+        <v>196</v>
+      </c>
+      <c r="E170" t="s">
+        <v>26</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B171" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C171" t="s">
+        <v>37</v>
+      </c>
+      <c r="D171" t="s">
+        <v>197</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="I171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B172" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C172" t="s">
+        <v>37</v>
+      </c>
+      <c r="D172" t="s">
+        <v>198</v>
+      </c>
+      <c r="E172" t="s">
+        <v>24</v>
+      </c>
+      <c r="F172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="I172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B173" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C173" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" t="s">
+        <v>199</v>
+      </c>
+      <c r="E173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" t="s">
+        <v>33</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="I173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B174" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C174" t="s">
+        <v>45</v>
+      </c>
+      <c r="D174" t="s">
+        <v>200</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="I174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B175" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C175" t="s">
+        <v>45</v>
+      </c>
+      <c r="D175" t="s">
+        <v>201</v>
+      </c>
+      <c r="E175" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="I175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B176" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C176" t="s">
+        <v>45</v>
+      </c>
+      <c r="D176" t="s">
+        <v>202</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="I176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B177" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C177" t="s">
+        <v>45</v>
+      </c>
+      <c r="D177" t="s">
+        <v>203</v>
+      </c>
+      <c r="E177" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177" s="2">
+        <v>0.77430555555555558</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="I177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B178" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C178" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" t="s">
+        <v>204</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" t="s">
+        <v>24</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="I178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B179" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C179" t="s">
+        <v>45</v>
+      </c>
+      <c r="D179" t="s">
+        <v>205</v>
+      </c>
+      <c r="E179" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="I179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B180" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C180" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" t="s">
+        <v>206</v>
+      </c>
+      <c r="E180" t="s">
+        <v>33</v>
+      </c>
+      <c r="F180" t="s">
+        <v>11</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B181" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C181" t="s">
+        <v>53</v>
+      </c>
+      <c r="D181" t="s">
+        <v>207</v>
+      </c>
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="I181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B182" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C182" t="s">
+        <v>53</v>
+      </c>
+      <c r="D182" t="s">
+        <v>208</v>
+      </c>
+      <c r="E182" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" t="s">
+        <v>11</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="I182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B183" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C183" t="s">
+        <v>53</v>
+      </c>
+      <c r="D183" t="s">
+        <v>209</v>
+      </c>
+      <c r="E183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="I183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B184" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C184" t="s">
+        <v>53</v>
+      </c>
+      <c r="D184" t="s">
+        <v>210</v>
+      </c>
+      <c r="E184" t="s">
+        <v>26</v>
+      </c>
+      <c r="F184" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" s="2">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B185" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C185" t="s">
+        <v>53</v>
+      </c>
+      <c r="D185" t="s">
+        <v>211</v>
+      </c>
+      <c r="E185" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="I185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B186" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C186" t="s">
+        <v>53</v>
+      </c>
+      <c r="D186" t="s">
+        <v>212</v>
+      </c>
+      <c r="E186" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="I186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B187" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C187" t="s">
+        <v>61</v>
+      </c>
+      <c r="D187" t="s">
+        <v>213</v>
+      </c>
+      <c r="E187" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B188" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C188" t="s">
+        <v>61</v>
+      </c>
+      <c r="D188" t="s">
+        <v>214</v>
+      </c>
+      <c r="E188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="I188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B189" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C189" t="s">
+        <v>61</v>
+      </c>
+      <c r="D189" t="s">
+        <v>215</v>
+      </c>
+      <c r="E189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" t="s">
+        <v>11</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H189" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="I189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B190" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C190" t="s">
+        <v>61</v>
+      </c>
+      <c r="D190" t="s">
+        <v>216</v>
+      </c>
+      <c r="E190" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" t="s">
+        <v>24</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="I190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B191" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C191" t="s">
+        <v>61</v>
+      </c>
+      <c r="D191" t="s">
+        <v>217</v>
+      </c>
+      <c r="E191" t="s">
+        <v>26</v>
+      </c>
+      <c r="F191" t="s">
+        <v>11</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="I191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B192" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C192" t="s">
+        <v>61</v>
+      </c>
+      <c r="D192" t="s">
+        <v>218</v>
+      </c>
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" s="2">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0.89930555555555558</v>
+      </c>
+      <c r="I192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B193" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C193" t="s">
+        <v>61</v>
+      </c>
+      <c r="D193" t="s">
+        <v>219</v>
+      </c>
+      <c r="E193" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H193" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B194" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C194" t="s">
+        <v>69</v>
+      </c>
+      <c r="D194" t="s">
+        <v>220</v>
+      </c>
+      <c r="E194" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" t="s">
+        <v>20</v>
+      </c>
+      <c r="G194" s="2">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="I194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B195" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C195" t="s">
+        <v>69</v>
+      </c>
+      <c r="D195" t="s">
+        <v>221</v>
+      </c>
+      <c r="E195" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="I195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B196" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C196" t="s">
+        <v>69</v>
+      </c>
+      <c r="D196" t="s">
+        <v>222</v>
+      </c>
+      <c r="E196" t="s">
+        <v>24</v>
+      </c>
+      <c r="F196" t="s">
+        <v>11</v>
+      </c>
+      <c r="G196" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="H196" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="I196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B197" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C197" t="s">
+        <v>69</v>
+      </c>
+      <c r="D197" t="s">
+        <v>223</v>
+      </c>
+      <c r="E197" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="H197" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="I197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B198" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C198" t="s">
+        <v>69</v>
+      </c>
+      <c r="D198" t="s">
+        <v>224</v>
+      </c>
+      <c r="E198" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="H198" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="I198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B199" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C199" t="s">
+        <v>69</v>
+      </c>
+      <c r="D199" t="s">
+        <v>225</v>
+      </c>
+      <c r="E199" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" t="s">
+        <v>22</v>
+      </c>
+      <c r="G199" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="I199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B200" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C200" t="s">
+        <v>69</v>
+      </c>
+      <c r="D200" t="s">
+        <v>226</v>
+      </c>
+      <c r="E200" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="H200" s="2">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="I200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B201" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C201" t="s">
+        <v>69</v>
+      </c>
+      <c r="D201" t="s">
+        <v>227</v>
+      </c>
+      <c r="E201" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" t="s">
+        <v>29</v>
+      </c>
+      <c r="G201" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H201" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="I201" t="s">
         <v>13</v>
       </c>
     </row>

--- a/backend/schedules/sample.xlsx
+++ b/backend/schedules/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzobule\Documents\flysolomons\website\backend\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C045E9C0-82EC-4731-9826-22414C384E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D80D7786-2E6F-4F70-A64C-C2944ECCE974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{3FC9212E-82AD-4A35-89C7-83AE87714235}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0CAC465-54D7-4017-98F2-E02207837D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="234">
   <si>
     <t>Start Date</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Flight Scope</t>
   </si>
   <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>International</t>
   </si>
   <si>
+    <t>A320-1</t>
+  </si>
+  <si>
     <t>IE002</t>
   </si>
   <si>
@@ -73,22 +79,34 @@
     <t>Domestic</t>
   </si>
   <si>
+    <t>Twin Otter 1</t>
+  </si>
+  <si>
     <t>IE003</t>
   </si>
   <si>
     <t>MUA</t>
   </si>
   <si>
+    <t>Dash-8</t>
+  </si>
+  <si>
     <t>IE004</t>
   </si>
   <si>
     <t>AKL</t>
   </si>
   <si>
+    <t>A320-2</t>
+  </si>
+  <si>
     <t>IE005</t>
   </si>
   <si>
     <t>RIN</t>
+  </si>
+  <si>
+    <t>Twin Otter 2</t>
   </si>
   <si>
     <t>IE006</t>
@@ -1565,14 +1583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE25B718-93D6-4A9A-8475-E9C23A1238BA}">
-  <dimension ref="A1:I201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0F6310-4301-405A-AE46-47461924D01C}">
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1600,8 +1618,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45658</v>
       </c>
@@ -1609,16 +1630,16 @@
         <v>45747</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2">
         <v>0.25</v>
@@ -1627,10 +1648,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45658</v>
       </c>
@@ -1638,16 +1662,16 @@
         <v>45747</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2">
         <v>0.30208333333333331</v>
@@ -1656,10 +1680,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45658</v>
       </c>
@@ -1667,16 +1694,16 @@
         <v>45747</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2">
         <v>0.39583333333333331</v>
@@ -1685,10 +1712,13 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45658</v>
       </c>
@@ -1696,16 +1726,16 @@
         <v>45747</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2">
         <v>0.48958333333333331</v>
@@ -1714,10 +1744,13 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45658</v>
       </c>
@@ -1725,16 +1758,16 @@
         <v>45747</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2">
         <v>0.59722222222222221</v>
@@ -1743,10 +1776,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45658</v>
       </c>
@@ -1754,16 +1790,16 @@
         <v>45747</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2">
         <v>0.69791666666666663</v>
@@ -1772,10 +1808,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45658</v>
       </c>
@@ -1783,16 +1822,16 @@
         <v>45747</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
         <v>0.75694444444444442</v>
@@ -1801,10 +1840,13 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45658</v>
       </c>
@@ -1812,16 +1854,16 @@
         <v>45747</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2">
         <v>0.22916666666666666</v>
@@ -1830,10 +1872,13 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45658</v>
       </c>
@@ -1841,16 +1886,16 @@
         <v>45747</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2">
         <v>0.36458333333333331</v>
@@ -1859,10 +1904,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45658</v>
       </c>
@@ -1870,16 +1918,16 @@
         <v>45747</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2">
         <v>0.42708333333333331</v>
@@ -1888,10 +1936,13 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45658</v>
       </c>
@@ -1899,16 +1950,16 @@
         <v>45747</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
         <v>0.52083333333333337</v>
@@ -1917,10 +1968,13 @@
         <v>0.65625</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45658</v>
       </c>
@@ -1928,16 +1982,16 @@
         <v>45747</v>
       </c>
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2">
         <v>0.68055555555555558</v>
@@ -1946,10 +2000,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45658</v>
       </c>
@@ -1957,16 +2014,16 @@
         <v>45747</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2">
         <v>0.79166666666666663</v>
@@ -1975,10 +2032,13 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45658</v>
       </c>
@@ -1986,16 +2046,16 @@
         <v>45747</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="2">
         <v>0.85416666666666663</v>
@@ -2004,10 +2064,13 @@
         <v>0.89930555555555558</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45658</v>
       </c>
@@ -2015,16 +2078,16 @@
         <v>45747</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2">
         <v>0.26041666666666669</v>
@@ -2033,10 +2096,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45658</v>
       </c>
@@ -2044,16 +2110,16 @@
         <v>45747</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2">
         <v>0.55555555555555558</v>
@@ -2062,10 +2128,13 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45658</v>
       </c>
@@ -2073,16 +2142,16 @@
         <v>45747</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="2">
         <v>0.65277777777777779</v>
@@ -2091,10 +2160,13 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45658</v>
       </c>
@@ -2102,16 +2174,16 @@
         <v>45747</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2">
         <v>0.74305555555555558</v>
@@ -2120,10 +2192,13 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45658</v>
       </c>
@@ -2131,16 +2206,16 @@
         <v>45747</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="2">
         <v>0.3125</v>
@@ -2149,10 +2224,13 @@
         <v>0.34375</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45658</v>
       </c>
@@ -2160,16 +2238,16 @@
         <v>45747</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G21" s="2">
         <v>0.40625</v>
@@ -2178,10 +2256,13 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45658</v>
       </c>
@@ -2189,16 +2270,16 @@
         <v>45747</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="2">
         <v>0.59375</v>
@@ -2207,10 +2288,13 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45658</v>
       </c>
@@ -2218,16 +2302,16 @@
         <v>45747</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G23" s="2">
         <v>0.27083333333333331</v>
@@ -2236,10 +2320,13 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45658</v>
       </c>
@@ -2247,16 +2334,16 @@
         <v>45747</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="2">
         <v>0.36458333333333331</v>
@@ -2265,10 +2352,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45658</v>
       </c>
@@ -2276,16 +2366,16 @@
         <v>45747</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G25" s="2">
         <v>0.47222222222222221</v>
@@ -2294,10 +2384,13 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45658</v>
       </c>
@@ -2305,16 +2398,16 @@
         <v>45747</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2">
         <v>0.63194444444444442</v>
@@ -2323,10 +2416,13 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45658</v>
       </c>
@@ -2334,16 +2430,16 @@
         <v>45747</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G27" s="2">
         <v>0.73958333333333337</v>
@@ -2352,10 +2448,13 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45658</v>
       </c>
@@ -2363,16 +2462,16 @@
         <v>45747</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2">
         <v>0.82638888888888884</v>
@@ -2381,10 +2480,13 @@
         <v>0.87152777777777779</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45658</v>
       </c>
@@ -2392,16 +2494,16 @@
         <v>45747</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G29" s="2">
         <v>0.88888888888888884</v>
@@ -2410,10 +2512,13 @@
         <v>0.92013888888888884</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45658</v>
       </c>
@@ -2421,16 +2526,16 @@
         <v>45747</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2">
         <v>0.23958333333333334</v>
@@ -2439,10 +2544,13 @@
         <v>0.375</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45658</v>
       </c>
@@ -2450,16 +2558,16 @@
         <v>45747</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G31" s="2">
         <v>0.4375</v>
@@ -2468,10 +2576,13 @@
         <v>0.46875</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45658</v>
       </c>
@@ -2479,16 +2590,16 @@
         <v>45747</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2">
         <v>0.52777777777777779</v>
@@ -2497,10 +2608,13 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45658</v>
       </c>
@@ -2508,16 +2622,16 @@
         <v>45747</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G33" s="2">
         <v>0.61805555555555558</v>
@@ -2526,10 +2640,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45658</v>
       </c>
@@ -2537,16 +2654,16 @@
         <v>45747</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2">
         <v>0.72569444444444442</v>
@@ -2555,10 +2672,13 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45658</v>
       </c>
@@ -2566,16 +2686,16 @@
         <v>45747</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G35" s="2">
         <v>0.81597222222222221</v>
@@ -2584,10 +2704,13 @@
         <v>0.86111111111111116</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45658</v>
       </c>
@@ -2595,16 +2718,16 @@
         <v>45747</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="2">
         <v>0.91666666666666663</v>
@@ -2613,10 +2736,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45658</v>
       </c>
@@ -2624,16 +2750,16 @@
         <v>45747</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="2">
         <v>0.30555555555555558</v>
@@ -2642,10 +2768,13 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45658</v>
       </c>
@@ -2653,16 +2782,16 @@
         <v>45747</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2">
         <v>0.39583333333333331</v>
@@ -2671,10 +2800,13 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45658</v>
       </c>
@@ -2682,16 +2814,16 @@
         <v>45747</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2">
         <v>0.4861111111111111</v>
@@ -2700,10 +2832,13 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45658</v>
       </c>
@@ -2711,16 +2846,16 @@
         <v>45747</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G40" s="2">
         <v>0.59375</v>
@@ -2729,10 +2864,13 @@
         <v>0.8125</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45658</v>
       </c>
@@ -2740,16 +2878,16 @@
         <v>45747</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="2">
         <v>0.83680555555555558</v>
@@ -2758,10 +2896,13 @@
         <v>0.86805555555555558</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45658</v>
       </c>
@@ -2769,16 +2910,16 @@
         <v>45747</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G42" s="2">
         <v>0.92708333333333337</v>
@@ -2787,10 +2928,13 @@
         <v>0.97222222222222221</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45658</v>
       </c>
@@ -2798,16 +2942,16 @@
         <v>45747</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43" s="2">
         <v>0.20833333333333334</v>
@@ -2816,10 +2960,13 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45658</v>
       </c>
@@ -2827,16 +2974,16 @@
         <v>45747</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G44" s="2">
         <v>0.28472222222222221</v>
@@ -2845,10 +2992,13 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45658</v>
       </c>
@@ -2856,16 +3006,16 @@
         <v>45747</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G45" s="2">
         <v>0.47916666666666669</v>
@@ -2874,10 +3024,13 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45658</v>
       </c>
@@ -2885,16 +3038,16 @@
         <v>45747</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46" s="2">
         <v>0.56944444444444442</v>
@@ -2903,10 +3056,13 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45658</v>
       </c>
@@ -2914,16 +3070,16 @@
         <v>45747</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G47" s="2">
         <v>0.65972222222222221</v>
@@ -2932,10 +3088,13 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45658</v>
       </c>
@@ -2943,16 +3102,16 @@
         <v>45747</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="2">
         <v>0.76736111111111116</v>
@@ -2961,10 +3120,13 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45658</v>
       </c>
@@ -2972,16 +3134,16 @@
         <v>45747</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G49" s="2">
         <v>0.85763888888888884</v>
@@ -2990,10 +3152,13 @@
         <v>0.90277777777777779</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45658</v>
       </c>
@@ -3001,16 +3166,16 @@
         <v>45747</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="2">
         <v>0.94791666666666663</v>
@@ -3019,10 +3184,13 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45658</v>
       </c>
@@ -3030,16 +3198,16 @@
         <v>45747</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G51" s="2">
         <v>0.99652777777777779</v>
@@ -3048,10 +3216,13 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45748</v>
       </c>
@@ -3059,16 +3230,16 @@
         <v>45838</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" s="2">
         <v>0.27083333333333331</v>
@@ -3077,10 +3248,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45748</v>
       </c>
@@ -3088,16 +3262,16 @@
         <v>45838</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2">
         <v>0.46875</v>
@@ -3106,10 +3280,13 @@
         <v>0.5</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45748</v>
       </c>
@@ -3117,16 +3294,16 @@
         <v>45838</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" s="2">
         <v>0.5625</v>
@@ -3135,10 +3312,13 @@
         <v>0.59375</v>
       </c>
       <c r="I54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45748</v>
       </c>
@@ -3146,16 +3326,16 @@
         <v>45838</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G55" s="2">
         <v>0.65277777777777779</v>
@@ -3164,10 +3344,13 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45748</v>
       </c>
@@ -3175,16 +3358,16 @@
         <v>45838</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" s="2">
         <v>0.76041666666666663</v>
@@ -3193,10 +3376,13 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45748</v>
       </c>
@@ -3204,16 +3390,16 @@
         <v>45838</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G57" s="2">
         <v>0.85069444444444442</v>
@@ -3222,10 +3408,13 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45748</v>
       </c>
@@ -3233,16 +3422,16 @@
         <v>45838</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G58" s="2">
         <v>0.95138888888888884</v>
@@ -3251,10 +3440,13 @@
         <v>0.1701388888888889</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45748</v>
       </c>
@@ -3262,16 +3454,16 @@
         <v>45838</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="2">
         <v>0.22222222222222221</v>
@@ -3280,10 +3472,13 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45748</v>
       </c>
@@ -3291,16 +3486,16 @@
         <v>45838</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2">
         <v>0.3125</v>
@@ -3309,10 +3504,13 @@
         <v>0.34375</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45748</v>
       </c>
@@ -3320,16 +3518,16 @@
         <v>45838</v>
       </c>
       <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" t="s">
         <v>27</v>
       </c>
-      <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" t="s">
-        <v>22</v>
-      </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G61" s="2">
         <v>0.40277777777777779</v>
@@ -3338,10 +3536,13 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45748</v>
       </c>
@@ -3349,16 +3550,16 @@
         <v>45838</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G62" s="2">
         <v>0.51041666666666663</v>
@@ -3367,10 +3568,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45748</v>
       </c>
@@ -3378,16 +3582,16 @@
         <v>45838</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" s="2">
         <v>0.70486111111111116</v>
@@ -3396,10 +3600,13 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45748</v>
       </c>
@@ -3407,16 +3614,16 @@
         <v>45838</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G64" s="2">
         <v>0.79513888888888884</v>
@@ -3425,10 +3632,13 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45748</v>
       </c>
@@ -3436,16 +3646,16 @@
         <v>45838</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" s="2">
         <v>0.89930555555555558</v>
@@ -3454,10 +3664,13 @@
         <v>0.93055555555555558</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45748</v>
       </c>
@@ -3465,16 +3678,16 @@
         <v>45838</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G66" s="2">
         <v>0.25</v>
@@ -3483,10 +3696,13 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="I66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45748</v>
       </c>
@@ -3494,16 +3710,16 @@
         <v>45838</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2">
         <v>0.44444444444444442</v>
@@ -3512,10 +3728,13 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45748</v>
       </c>
@@ -3523,16 +3742,16 @@
         <v>45838</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G68" s="2">
         <v>0.53472222222222221</v>
@@ -3541,10 +3760,13 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45748</v>
       </c>
@@ -3552,16 +3774,16 @@
         <v>45838</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G69" s="2">
         <v>0.625</v>
@@ -3570,10 +3792,13 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45748</v>
       </c>
@@ -3581,16 +3806,16 @@
         <v>45838</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G70" s="2">
         <v>0.73263888888888884</v>
@@ -3599,10 +3824,13 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45748</v>
       </c>
@@ -3610,16 +3838,16 @@
         <v>45838</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G71" s="2">
         <v>0.82291666666666663</v>
@@ -3628,10 +3856,13 @@
         <v>0.86805555555555558</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45748</v>
       </c>
@@ -3639,16 +3870,16 @@
         <v>45838</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2">
         <v>0.92361111111111116</v>
@@ -3657,10 +3888,13 @@
         <v>5.9027777777777776E-2</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45748</v>
       </c>
@@ -3668,16 +3902,16 @@
         <v>45838</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2">
         <v>0.11805555555555555</v>
@@ -3686,10 +3920,13 @@
         <v>0.14930555555555555</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45748</v>
       </c>
@@ -3697,16 +3934,16 @@
         <v>45838</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2">
         <v>0.20833333333333334</v>
@@ -3715,10 +3952,13 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45748</v>
       </c>
@@ -3726,16 +3966,16 @@
         <v>45838</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G75" s="2">
         <v>0.2986111111111111</v>
@@ -3744,10 +3984,13 @@
         <v>0.3298611111111111</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45748</v>
       </c>
@@ -3755,16 +3998,16 @@
         <v>45838</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G76" s="2">
         <v>0.3888888888888889</v>
@@ -3773,10 +4016,13 @@
         <v>0.4375</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45748</v>
       </c>
@@ -3784,16 +4030,16 @@
         <v>45838</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" s="2">
         <v>0.49652777777777779</v>
@@ -3802,10 +4048,13 @@
         <v>0.64236111111111116</v>
       </c>
       <c r="I77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45748</v>
       </c>
@@ -3813,16 +4062,16 @@
         <v>45838</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" s="2">
         <v>0.70138888888888884</v>
@@ -3831,10 +4080,13 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45748</v>
       </c>
@@ -3842,16 +4094,16 @@
         <v>45838</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G79" s="2">
         <v>0.80555555555555558</v>
@@ -3860,10 +4112,13 @@
         <v>0.83680555555555558</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45748</v>
       </c>
@@ -3871,16 +4126,16 @@
         <v>45838</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G80" s="2">
         <v>0.26041666666666669</v>
@@ -3889,10 +4144,13 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45748</v>
       </c>
@@ -3900,16 +4158,16 @@
         <v>45838</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G81" s="2">
         <v>0.35069444444444442</v>
@@ -3918,10 +4176,13 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45748</v>
       </c>
@@ -3929,16 +4190,16 @@
         <v>45838</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G82" s="2">
         <v>0.45833333333333331</v>
@@ -3947,10 +4208,13 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45748</v>
       </c>
@@ -3958,16 +4222,16 @@
         <v>45838</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G83" s="2">
         <v>0.54861111111111116</v>
@@ -3976,10 +4240,13 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45748</v>
       </c>
@@ -3987,16 +4254,16 @@
         <v>45838</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G84" s="2">
         <v>0.82638888888888884</v>
@@ -4005,10 +4272,13 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45748</v>
       </c>
@@ -4016,16 +4286,16 @@
         <v>45838</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G85" s="2">
         <v>0.91666666666666663</v>
@@ -4034,10 +4304,13 @@
         <v>0.96180555555555558</v>
       </c>
       <c r="I85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45748</v>
       </c>
@@ -4045,16 +4318,16 @@
         <v>45838</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G86" s="2">
         <v>0.97916666666666663</v>
@@ -4063,10 +4336,13 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="I86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45748</v>
       </c>
@@ -4074,16 +4350,16 @@
         <v>45838</v>
       </c>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G87" s="2">
         <v>4.5138888888888888E-2</v>
@@ -4092,10 +4368,13 @@
         <v>0.18055555555555555</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45748</v>
       </c>
@@ -4103,16 +4382,16 @@
         <v>45838</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2">
         <v>0.23958333333333334</v>
@@ -4121,10 +4400,13 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="I88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45748</v>
       </c>
@@ -4132,16 +4414,16 @@
         <v>45838</v>
       </c>
       <c r="C89" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D89" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G89" s="2">
         <v>0.33333333333333331</v>
@@ -4150,10 +4432,13 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="I89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45748</v>
       </c>
@@ -4161,16 +4446,16 @@
         <v>45838</v>
       </c>
       <c r="C90" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D90" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2">
         <v>0.4236111111111111</v>
@@ -4179,10 +4464,13 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45748</v>
       </c>
@@ -4190,16 +4478,16 @@
         <v>45838</v>
       </c>
       <c r="C91" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D91" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G91" s="2">
         <v>0.51388888888888884</v>
@@ -4208,10 +4496,13 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45748</v>
       </c>
@@ -4219,16 +4510,16 @@
         <v>45838</v>
       </c>
       <c r="C92" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G92" s="2">
         <v>0.61805555555555558</v>
@@ -4237,10 +4528,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45748</v>
       </c>
@@ -4248,16 +4542,16 @@
         <v>45838</v>
       </c>
       <c r="C93" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D93" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G93" s="2">
         <v>0.72569444444444442</v>
@@ -4266,10 +4560,13 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45748</v>
       </c>
@@ -4277,16 +4574,16 @@
         <v>45838</v>
       </c>
       <c r="C94" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G94" s="2">
         <v>0.27430555555555558</v>
@@ -4295,10 +4592,13 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="I94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45748</v>
       </c>
@@ -4306,16 +4606,16 @@
         <v>45838</v>
       </c>
       <c r="C95" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D95" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G95" s="2">
         <v>0.46875</v>
@@ -4324,10 +4624,13 @@
         <v>0.5</v>
       </c>
       <c r="I95" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45748</v>
       </c>
@@ -4335,16 +4638,16 @@
         <v>45838</v>
       </c>
       <c r="C96" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G96" s="2">
         <v>0.55902777777777779</v>
@@ -4353,10 +4656,13 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="I96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45748</v>
       </c>
@@ -4364,16 +4670,16 @@
         <v>45838</v>
       </c>
       <c r="C97" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D97" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G97" s="2">
         <v>0.64930555555555558</v>
@@ -4382,10 +4688,13 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="I97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45748</v>
       </c>
@@ -4393,16 +4702,16 @@
         <v>45838</v>
       </c>
       <c r="C98" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G98" s="2">
         <v>0.75347222222222221</v>
@@ -4411,10 +4720,13 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45748</v>
       </c>
@@ -4422,16 +4734,16 @@
         <v>45838</v>
       </c>
       <c r="C99" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D99" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2">
         <v>0.86111111111111116</v>
@@ -4440,10 +4752,13 @@
         <v>0.89236111111111116</v>
       </c>
       <c r="I99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45748</v>
       </c>
@@ -4451,16 +4766,16 @@
         <v>45838</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G100" s="2">
         <v>0.95138888888888884</v>
@@ -4469,10 +4784,13 @@
         <v>0.98263888888888884</v>
       </c>
       <c r="I100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45748</v>
       </c>
@@ -4480,16 +4798,16 @@
         <v>45838</v>
       </c>
       <c r="C101" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" s="2">
         <v>0</v>
@@ -4498,10 +4816,13 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="I101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45839</v>
       </c>
@@ -4509,16 +4830,16 @@
         <v>45930</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G102" s="2">
         <v>0.23958333333333334</v>
@@ -4527,10 +4848,13 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="I102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45839</v>
       </c>
@@ -4538,16 +4862,16 @@
         <v>45930</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G103" s="2">
         <v>0.51736111111111116</v>
@@ -4556,10 +4880,13 @@
         <v>0.54861111111111116</v>
       </c>
       <c r="I103" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45839</v>
       </c>
@@ -4567,16 +4894,16 @@
         <v>45930</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G104" s="2">
         <v>0.60763888888888884</v>
@@ -4585,10 +4912,13 @@
         <v>0.63888888888888884</v>
       </c>
       <c r="I104" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45839</v>
       </c>
@@ -4596,16 +4926,16 @@
         <v>45930</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G105" s="2">
         <v>0.69791666666666663</v>
@@ -4614,10 +4944,13 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="I105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45839</v>
       </c>
@@ -4625,16 +4958,16 @@
         <v>45930</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G106" s="2">
         <v>0.80555555555555558</v>
@@ -4643,10 +4976,13 @@
         <v>0.83680555555555558</v>
       </c>
       <c r="I106" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45839</v>
       </c>
@@ -4654,16 +4990,16 @@
         <v>45930</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G107" s="2">
         <v>0.89583333333333337</v>
@@ -4672,10 +5008,13 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="I107" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45839</v>
       </c>
@@ -4683,16 +5022,16 @@
         <v>45930</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G108" s="2">
         <v>0.95833333333333337</v>
@@ -4701,10 +5040,13 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="I108" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45839</v>
       </c>
@@ -4712,16 +5054,16 @@
         <v>45930</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G109" s="2">
         <v>0.25694444444444442</v>
@@ -4730,10 +5072,13 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="I109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45839</v>
       </c>
@@ -4741,16 +5086,16 @@
         <v>45930</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2">
         <v>0.4513888888888889</v>
@@ -4759,10 +5104,13 @@
         <v>0.4826388888888889</v>
       </c>
       <c r="I110" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45839</v>
       </c>
@@ -4770,16 +5118,16 @@
         <v>45930</v>
       </c>
       <c r="C111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" t="s">
         <v>27</v>
       </c>
-      <c r="D111" t="s">
-        <v>137</v>
-      </c>
-      <c r="E111" t="s">
-        <v>22</v>
-      </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G111" s="2">
         <v>0.54166666666666663</v>
@@ -4788,10 +5136,13 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="I111" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45839</v>
       </c>
@@ -4799,16 +5150,16 @@
         <v>45930</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D112" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G112" s="2">
         <v>0.64930555555555558</v>
@@ -4817,10 +5168,13 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="I112" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45839</v>
       </c>
@@ -4828,16 +5182,16 @@
         <v>45930</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D113" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E113" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G113" s="2">
         <v>0.73958333333333337</v>
@@ -4846,10 +5200,13 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="I113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J113" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45839</v>
       </c>
@@ -4857,16 +5214,16 @@
         <v>45930</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G114" s="2">
         <v>0.84375</v>
@@ -4875,10 +5232,13 @@
         <v>0.875</v>
       </c>
       <c r="I114" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45839</v>
       </c>
@@ -4886,16 +5246,16 @@
         <v>45930</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G115" s="2">
         <v>0.93402777777777779</v>
@@ -4904,10 +5264,13 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="I115" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45839</v>
       </c>
@@ -4915,16 +5278,16 @@
         <v>45930</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D116" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G116" s="2">
         <v>0.2326388888888889</v>
@@ -4933,10 +5296,13 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="I116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45839</v>
       </c>
@@ -4944,16 +5310,16 @@
         <v>45930</v>
       </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G117" s="2">
         <v>0.42708333333333331</v>
@@ -4962,10 +5328,13 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="I117" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45839</v>
       </c>
@@ -4973,16 +5342,16 @@
         <v>45930</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G118" s="2">
         <v>0.53472222222222221</v>
@@ -4991,10 +5360,13 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="I118" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J118" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45839</v>
       </c>
@@ -5002,16 +5374,16 @@
         <v>45930</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G119" s="2">
         <v>0.625</v>
@@ -5020,10 +5392,13 @@
         <v>0.65625</v>
       </c>
       <c r="I119" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45839</v>
       </c>
@@ -5031,16 +5406,16 @@
         <v>45930</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E120" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G120" s="2">
         <v>0.71527777777777779</v>
@@ -5049,10 +5424,13 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="I120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J120" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45839</v>
       </c>
@@ -5060,16 +5438,16 @@
         <v>45930</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2">
         <v>0.81944444444444442</v>
@@ -5078,10 +5456,13 @@
         <v>0.85069444444444442</v>
       </c>
       <c r="I121" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J121" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45839</v>
       </c>
@@ -5089,16 +5470,16 @@
         <v>45930</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D122" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G122" s="2">
         <v>0.90972222222222221</v>
@@ -5107,10 +5488,13 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="I122" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45839</v>
       </c>
@@ -5118,16 +5502,16 @@
         <v>45930</v>
       </c>
       <c r="C123" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D123" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" s="2">
         <v>0.2638888888888889</v>
@@ -5136,10 +5520,13 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="I123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45839</v>
       </c>
@@ -5147,16 +5534,16 @@
         <v>45930</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G124" s="2">
         <v>0.46875</v>
@@ -5165,10 +5552,13 @@
         <v>0.5</v>
       </c>
       <c r="I124" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45839</v>
       </c>
@@ -5176,16 +5566,16 @@
         <v>45930</v>
       </c>
       <c r="C125" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E125" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G125" s="2">
         <v>0.55902777777777779</v>
@@ -5194,10 +5584,13 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="I125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45839</v>
       </c>
@@ -5205,16 +5598,16 @@
         <v>45930</v>
       </c>
       <c r="C126" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D126" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G126" s="2">
         <v>0.66666666666666663</v>
@@ -5223,10 +5616,13 @@
         <v>0.71180555555555558</v>
       </c>
       <c r="I126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45839</v>
       </c>
@@ -5234,16 +5630,16 @@
         <v>45930</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D127" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G127" s="2">
         <v>0.77083333333333337</v>
@@ -5252,10 +5648,13 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="I127" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J127" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45839</v>
       </c>
@@ -5263,16 +5662,16 @@
         <v>45930</v>
       </c>
       <c r="C128" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D128" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G128" s="2">
         <v>0.86111111111111116</v>
@@ -5281,10 +5680,13 @@
         <v>0.89236111111111116</v>
       </c>
       <c r="I128" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45839</v>
       </c>
@@ -5292,16 +5694,16 @@
         <v>45930</v>
       </c>
       <c r="C129" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D129" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E129" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G129" s="2">
         <v>0.95138888888888884</v>
@@ -5310,10 +5712,13 @@
         <v>0.98263888888888884</v>
       </c>
       <c r="I129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45839</v>
       </c>
@@ -5321,16 +5726,16 @@
         <v>45930</v>
       </c>
       <c r="C130" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D130" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G130" s="2">
         <v>0.20833333333333334</v>
@@ -5339,10 +5744,13 @@
         <v>0.34375</v>
       </c>
       <c r="I130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45839</v>
       </c>
@@ -5350,16 +5758,16 @@
         <v>45930</v>
       </c>
       <c r="C131" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D131" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G131" s="2">
         <v>0.40277777777777779</v>
@@ -5368,10 +5776,13 @@
         <v>0.43402777777777779</v>
       </c>
       <c r="I131" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45839</v>
       </c>
@@ -5379,16 +5790,16 @@
         <v>45930</v>
       </c>
       <c r="C132" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D132" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E132" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G132" s="2">
         <v>0.49305555555555558</v>
@@ -5397,10 +5808,13 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="I132" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45839</v>
       </c>
@@ -5408,16 +5822,16 @@
         <v>45930</v>
       </c>
       <c r="C133" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D133" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G133" s="2">
         <v>0.58333333333333337</v>
@@ -5426,10 +5840,13 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="I133" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45839</v>
       </c>
@@ -5437,16 +5854,16 @@
         <v>45930</v>
       </c>
       <c r="C134" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D134" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E134" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G134" s="2">
         <v>0.69097222222222221</v>
@@ -5455,10 +5872,13 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="I134" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J134" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45839</v>
       </c>
@@ -5466,16 +5886,16 @@
         <v>45930</v>
       </c>
       <c r="C135" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D135" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G135" s="2">
         <v>0.79513888888888884</v>
@@ -5484,10 +5904,13 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="I135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J135" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45839</v>
       </c>
@@ -5495,16 +5918,16 @@
         <v>45930</v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D136" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G136" s="2">
         <v>0.88541666666666663</v>
@@ -5513,10 +5936,13 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="I136" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45839</v>
       </c>
@@ -5524,16 +5950,16 @@
         <v>45930</v>
       </c>
       <c r="C137" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G137" s="2">
         <v>0.2673611111111111</v>
@@ -5542,10 +5968,13 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="I137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45839</v>
       </c>
@@ -5553,16 +5982,16 @@
         <v>45930</v>
       </c>
       <c r="C138" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D138" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G138" s="2">
         <v>0.54513888888888884</v>
@@ -5571,10 +6000,13 @@
         <v>0.59375</v>
       </c>
       <c r="I138" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J138" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45839</v>
       </c>
@@ -5582,16 +6014,16 @@
         <v>45930</v>
       </c>
       <c r="C139" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D139" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E139" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G139" s="2">
         <v>0.65277777777777779</v>
@@ -5600,10 +6032,13 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="I139" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45839</v>
       </c>
@@ -5611,16 +6046,16 @@
         <v>45930</v>
       </c>
       <c r="C140" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D140" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G140" s="2">
         <v>0.74305555555555558</v>
@@ -5629,10 +6064,13 @@
         <v>0.77430555555555558</v>
       </c>
       <c r="I140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J140" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45839</v>
       </c>
@@ -5640,16 +6078,16 @@
         <v>45930</v>
       </c>
       <c r="C141" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D141" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E141" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G141" s="2">
         <v>0.83333333333333337</v>
@@ -5658,10 +6096,13 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="I141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J141" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45839</v>
       </c>
@@ -5669,16 +6110,16 @@
         <v>45930</v>
       </c>
       <c r="C142" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D142" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G142" s="2">
         <v>0.9375</v>
@@ -5687,10 +6128,13 @@
         <v>0.96875</v>
       </c>
       <c r="I142" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45839</v>
       </c>
@@ -5698,16 +6142,16 @@
         <v>45930</v>
       </c>
       <c r="C143" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D143" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E143" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G143" s="2">
         <v>0.98611111111111116</v>
@@ -5716,10 +6160,13 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="I143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J143" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45839</v>
       </c>
@@ -5727,16 +6174,16 @@
         <v>45930</v>
       </c>
       <c r="C144" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D144" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G144" s="2">
         <v>5.2083333333333336E-2</v>
@@ -5745,10 +6192,13 @@
         <v>0.1875</v>
       </c>
       <c r="I144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45839</v>
       </c>
@@ -5756,16 +6206,16 @@
         <v>45930</v>
       </c>
       <c r="C145" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D145" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G145" s="2">
         <v>0.24652777777777779</v>
@@ -5774,10 +6224,13 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="I145" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J145" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45839</v>
       </c>
@@ -5785,16 +6238,16 @@
         <v>45930</v>
       </c>
       <c r="C146" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D146" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G146" s="2">
         <v>0.33680555555555558</v>
@@ -5803,10 +6256,13 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="I146" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J146" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45839</v>
       </c>
@@ -5814,16 +6270,16 @@
         <v>45930</v>
       </c>
       <c r="C147" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D147" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G147" s="2">
         <v>0.42708333333333331</v>
@@ -5832,10 +6288,13 @@
         <v>0.47222222222222221</v>
       </c>
       <c r="I147" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45839</v>
       </c>
@@ -5843,16 +6302,16 @@
         <v>45930</v>
       </c>
       <c r="C148" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D148" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E148" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G148" s="2">
         <v>0.53125</v>
@@ -5861,10 +6320,13 @@
         <v>0.5625</v>
       </c>
       <c r="I148" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J148" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45839</v>
       </c>
@@ -5872,16 +6334,16 @@
         <v>45930</v>
       </c>
       <c r="C149" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D149" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G149" s="2">
         <v>0.62152777777777779</v>
@@ -5890,10 +6352,13 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45839</v>
       </c>
@@ -5901,16 +6366,16 @@
         <v>45930</v>
       </c>
       <c r="C150" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D150" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E150" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G150" s="2">
         <v>0.72916666666666663</v>
@@ -5919,10 +6384,13 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="I150" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45839</v>
       </c>
@@ -5930,16 +6398,16 @@
         <v>45930</v>
       </c>
       <c r="C151" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D151" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G151" s="2">
         <v>0.81944444444444442</v>
@@ -5948,10 +6416,13 @@
         <v>0.95486111111111116</v>
       </c>
       <c r="I151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45931</v>
       </c>
@@ -5959,16 +6430,16 @@
         <v>46022</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G152" s="2">
         <v>0.22916666666666666</v>
@@ -5977,10 +6448,13 @@
         <v>0.375</v>
       </c>
       <c r="I152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45931</v>
       </c>
@@ -5988,16 +6462,16 @@
         <v>46022</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G153" s="2">
         <v>0.43402777777777779</v>
@@ -6006,10 +6480,13 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="I153" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45931</v>
       </c>
@@ -6017,16 +6494,16 @@
         <v>46022</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E154" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G154" s="2">
         <v>0.52430555555555558</v>
@@ -6035,10 +6512,13 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="I154" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45931</v>
       </c>
@@ -6046,16 +6526,16 @@
         <v>46022</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G155" s="2">
         <v>0.61458333333333337</v>
@@ -6064,10 +6544,13 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="I155" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J155" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45931</v>
       </c>
@@ -6075,16 +6558,16 @@
         <v>46022</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E156" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G156" s="2">
         <v>0.72222222222222221</v>
@@ -6093,10 +6576,13 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="I156" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45931</v>
       </c>
@@ -6104,16 +6590,16 @@
         <v>46022</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G157" s="2">
         <v>0.8125</v>
@@ -6122,10 +6608,13 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="I157" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J157" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45931</v>
       </c>
@@ -6133,16 +6622,16 @@
         <v>46022</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E158" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G158" s="2">
         <v>0.91666666666666663</v>
@@ -6151,10 +6640,13 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="I158" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45931</v>
       </c>
@@ -6162,16 +6654,16 @@
         <v>46022</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D159" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G159" s="2">
         <v>0.26041666666666669</v>
@@ -6180,10 +6672,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="I159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45931</v>
       </c>
@@ -6191,16 +6686,16 @@
         <v>46022</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D160" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G160" s="2">
         <v>0.54166666666666663</v>
@@ -6209,10 +6704,13 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="I160" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45931</v>
       </c>
@@ -6220,16 +6718,16 @@
         <v>46022</v>
       </c>
       <c r="C161" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" t="s">
+        <v>193</v>
+      </c>
+      <c r="E161" t="s">
         <v>27</v>
       </c>
-      <c r="D161" t="s">
-        <v>187</v>
-      </c>
-      <c r="E161" t="s">
-        <v>22</v>
-      </c>
       <c r="F161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G161" s="2">
         <v>0.63194444444444442</v>
@@ -6238,10 +6736,13 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="I161" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J161" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45931</v>
       </c>
@@ -6249,16 +6750,16 @@
         <v>46022</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D162" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G162" s="2">
         <v>0.73958333333333337</v>
@@ -6267,10 +6768,13 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="I162" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J162" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45931</v>
       </c>
@@ -6278,16 +6782,16 @@
         <v>46022</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D163" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E163" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G163" s="2">
         <v>0.83333333333333337</v>
@@ -6296,10 +6800,13 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="I163" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45931</v>
       </c>
@@ -6307,16 +6814,16 @@
         <v>46022</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D164" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G164" s="2">
         <v>0.9375</v>
@@ -6325,10 +6832,13 @@
         <v>0.96875</v>
       </c>
       <c r="I164" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J164" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45931</v>
       </c>
@@ -6336,16 +6846,16 @@
         <v>46022</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D165" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E165" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G165" s="2">
         <v>0.98611111111111116</v>
@@ -6354,10 +6864,13 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="I165" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45931</v>
       </c>
@@ -6365,16 +6878,16 @@
         <v>46022</v>
       </c>
       <c r="C166" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D166" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G166" s="2">
         <v>7.6388888888888895E-2</v>
@@ -6383,10 +6896,13 @@
         <v>0.21180555555555555</v>
       </c>
       <c r="I166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J166" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45931</v>
       </c>
@@ -6394,16 +6910,16 @@
         <v>46022</v>
       </c>
       <c r="C167" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D167" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G167" s="2">
         <v>0.27083333333333331</v>
@@ -6412,10 +6928,13 @@
         <v>0.31944444444444442</v>
       </c>
       <c r="I167" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45931</v>
       </c>
@@ -6423,16 +6942,16 @@
         <v>46022</v>
       </c>
       <c r="C168" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D168" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E168" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G168" s="2">
         <v>0.37847222222222221</v>
@@ -6441,10 +6960,13 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="I168" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45931</v>
       </c>
@@ -6452,16 +6974,16 @@
         <v>46022</v>
       </c>
       <c r="C169" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D169" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G169" s="2">
         <v>0.46875</v>
@@ -6470,10 +6992,13 @@
         <v>0.5</v>
       </c>
       <c r="I169" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J169" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45931</v>
       </c>
@@ -6481,16 +7006,16 @@
         <v>46022</v>
       </c>
       <c r="C170" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D170" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E170" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G170" s="2">
         <v>0.55902777777777779</v>
@@ -6499,10 +7024,13 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="I170" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>45931</v>
       </c>
@@ -6510,16 +7038,16 @@
         <v>46022</v>
       </c>
       <c r="C171" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D171" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G171" s="2">
         <v>0.66319444444444442</v>
@@ -6528,10 +7056,13 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="I171" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45931</v>
       </c>
@@ -6539,16 +7070,16 @@
         <v>46022</v>
       </c>
       <c r="C172" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D172" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E172" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G172" s="2">
         <v>0.75347222222222221</v>
@@ -6557,10 +7088,13 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="I172" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45931</v>
       </c>
@@ -6568,16 +7102,16 @@
         <v>46022</v>
       </c>
       <c r="C173" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D173" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G173" s="2">
         <v>0.27777777777777779</v>
@@ -6586,10 +7120,13 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="I173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45931</v>
       </c>
@@ -6597,16 +7134,16 @@
         <v>46022</v>
       </c>
       <c r="C174" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D174" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G174" s="2">
         <v>0.47222222222222221</v>
@@ -6615,10 +7152,13 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="I174" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45931</v>
       </c>
@@ -6626,16 +7166,16 @@
         <v>46022</v>
       </c>
       <c r="C175" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D175" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E175" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G175" s="2">
         <v>0.5625</v>
@@ -6644,10 +7184,13 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="I175" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J175" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45931</v>
       </c>
@@ -6655,16 +7198,16 @@
         <v>46022</v>
       </c>
       <c r="C176" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D176" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G176" s="2">
         <v>0.67013888888888884</v>
@@ -6673,10 +7216,13 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="I176" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J176" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>45931</v>
       </c>
@@ -6684,16 +7230,16 @@
         <v>46022</v>
       </c>
       <c r="C177" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D177" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E177" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G177" s="2">
         <v>0.77430555555555558</v>
@@ -6702,10 +7248,13 @@
         <v>0.80555555555555558</v>
       </c>
       <c r="I177" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J177" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>45931</v>
       </c>
@@ -6713,16 +7262,16 @@
         <v>46022</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D178" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G178" s="2">
         <v>0.86458333333333337</v>
@@ -6731,10 +7280,13 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="I178" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>45931</v>
       </c>
@@ -6742,16 +7294,16 @@
         <v>46022</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D179" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E179" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G179" s="2">
         <v>0.95486111111111116</v>
@@ -6760,10 +7312,13 @@
         <v>0.98611111111111116</v>
       </c>
       <c r="I179" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J179" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45931</v>
       </c>
@@ -6771,16 +7326,16 @@
         <v>46022</v>
       </c>
       <c r="C180" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D180" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E180" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G180" s="2">
         <v>0.21180555555555555</v>
@@ -6789,10 +7344,13 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="I180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J180" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>45931</v>
       </c>
@@ -6800,16 +7358,16 @@
         <v>46022</v>
       </c>
       <c r="C181" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D181" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G181" s="2">
         <v>0.40625</v>
@@ -6818,10 +7376,13 @@
         <v>0.4375</v>
       </c>
       <c r="I181" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45931</v>
       </c>
@@ -6829,16 +7390,16 @@
         <v>46022</v>
       </c>
       <c r="C182" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D182" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E182" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G182" s="2">
         <v>0.49652777777777779</v>
@@ -6847,10 +7408,13 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="I182" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J182" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>45931</v>
       </c>
@@ -6858,16 +7422,16 @@
         <v>46022</v>
       </c>
       <c r="C183" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D183" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G183" s="2">
         <v>0.58680555555555558</v>
@@ -6876,10 +7440,13 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="I183" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J183" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45931</v>
       </c>
@@ -6887,16 +7454,16 @@
         <v>46022</v>
       </c>
       <c r="C184" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D184" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E184" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G184" s="2">
         <v>0.69444444444444442</v>
@@ -6905,10 +7472,13 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="I184" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J184" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>45931</v>
       </c>
@@ -6916,16 +7486,16 @@
         <v>46022</v>
       </c>
       <c r="C185" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D185" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G185" s="2">
         <v>0.79861111111111116</v>
@@ -6934,10 +7504,13 @@
         <v>0.82986111111111116</v>
       </c>
       <c r="I185" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J185" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>45931</v>
       </c>
@@ -6945,16 +7518,16 @@
         <v>46022</v>
       </c>
       <c r="C186" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D186" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E186" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G186" s="2">
         <v>0.88888888888888884</v>
@@ -6963,10 +7536,13 @@
         <v>0.92013888888888884</v>
       </c>
       <c r="I186" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J186" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>45931</v>
       </c>
@@ -6974,16 +7550,16 @@
         <v>46022</v>
       </c>
       <c r="C187" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D187" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" s="2">
         <v>0.27083333333333331</v>
@@ -6992,10 +7568,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="I187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>45931</v>
       </c>
@@ -7003,16 +7582,16 @@
         <v>46022</v>
       </c>
       <c r="C188" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D188" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G188" s="2">
         <v>0.47569444444444442</v>
@@ -7021,10 +7600,13 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="I188" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J188" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>45931</v>
       </c>
@@ -7032,16 +7614,16 @@
         <v>46022</v>
       </c>
       <c r="C189" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D189" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E189" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G189" s="2">
         <v>0.58333333333333337</v>
@@ -7050,10 +7632,13 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="I189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>45931</v>
       </c>
@@ -7061,16 +7646,16 @@
         <v>46022</v>
       </c>
       <c r="C190" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D190" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G190" s="2">
         <v>0.67361111111111116</v>
@@ -7079,10 +7664,13 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="I190" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J190" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>45931</v>
       </c>
@@ -7090,16 +7678,16 @@
         <v>46022</v>
       </c>
       <c r="C191" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D191" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E191" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G191" s="2">
         <v>0.76388888888888884</v>
@@ -7108,10 +7696,13 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="I191" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J191" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>45931</v>
       </c>
@@ -7119,16 +7710,16 @@
         <v>46022</v>
       </c>
       <c r="C192" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D192" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G192" s="2">
         <v>0.86805555555555558</v>
@@ -7137,10 +7728,13 @@
         <v>0.89930555555555558</v>
       </c>
       <c r="I192" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J192" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>45931</v>
       </c>
@@ -7148,16 +7742,16 @@
         <v>46022</v>
       </c>
       <c r="C193" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D193" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E193" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G193" s="2">
         <v>0.95833333333333337</v>
@@ -7166,10 +7760,13 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="I193" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J193" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>45931</v>
       </c>
@@ -7177,16 +7774,16 @@
         <v>46022</v>
       </c>
       <c r="C194" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D194" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G194" s="2">
         <v>6.5972222222222224E-2</v>
@@ -7195,10 +7792,13 @@
         <v>0.28472222222222221</v>
       </c>
       <c r="I194" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J194" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>45931</v>
       </c>
@@ -7206,16 +7806,16 @@
         <v>46022</v>
       </c>
       <c r="C195" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D195" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G195" s="2">
         <v>0.34375</v>
@@ -7224,10 +7824,13 @@
         <v>0.375</v>
       </c>
       <c r="I195" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J195" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>45931</v>
       </c>
@@ -7235,16 +7838,16 @@
         <v>46022</v>
       </c>
       <c r="C196" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D196" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E196" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G196" s="2">
         <v>0.43402777777777779</v>
@@ -7253,10 +7856,13 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="I196" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J196" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>45931</v>
       </c>
@@ -7264,16 +7870,16 @@
         <v>46022</v>
       </c>
       <c r="C197" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D197" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G197" s="2">
         <v>0.52430555555555558</v>
@@ -7282,10 +7888,13 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="I197" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J197" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>45931</v>
       </c>
@@ -7293,16 +7902,16 @@
         <v>46022</v>
       </c>
       <c r="C198" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D198" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E198" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G198" s="2">
         <v>0.62847222222222221</v>
@@ -7311,10 +7920,13 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="I198" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J198" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>45931</v>
       </c>
@@ -7322,16 +7934,16 @@
         <v>46022</v>
       </c>
       <c r="C199" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D199" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G199" s="2">
         <v>0.71875</v>
@@ -7340,10 +7952,13 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="I199" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>45931</v>
       </c>
@@ -7351,16 +7966,16 @@
         <v>46022</v>
       </c>
       <c r="C200" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D200" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E200" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G200" s="2">
         <v>0.82638888888888884</v>
@@ -7369,10 +7984,13 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="I200" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>45931</v>
       </c>
@@ -7380,16 +7998,16 @@
         <v>46022</v>
       </c>
       <c r="C201" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D201" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G201" s="2">
         <v>0.91666666666666663</v>
@@ -7398,7 +8016,10 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="I201" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J201" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
